--- a/_data/resource_list.xlsx
+++ b/_data/resource_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/353f90cab10cd109/Documenten/Work-DESKTOP-8V2CDT9/rdm-toolkit/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{191146EF-F505-4547-B871-55E7A17D37A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6DD5FC16-5F42-49DB-9609-BBECA8A06A52}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{191146EF-F505-4547-B871-55E7A17D37A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7141A041-EE27-4B33-9282-CC721F149FB9}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C3B97F62-A39D-4DBC-A677-94D5F0C864A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>link</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>standard</t>
+  </si>
+  <si>
+    <t>Machine actionable DMPs</t>
+  </si>
+  <si>
+    <t>https://library.ust.hk/sc/machine-actionable-dmp/</t>
+  </si>
+  <si>
+    <t>https://researcheracademy.elsevier.com/research-preparation/research-data-management/creating-good-research-data-management-plan</t>
+  </si>
+  <si>
+    <t>Research Management Plan</t>
+  </si>
+  <si>
+    <t>maDMP - Research Bridge</t>
+  </si>
+  <si>
+    <t>Machine-Actionable Data Management Plan | Webinar (2016) on making a good data management plan</t>
+  </si>
+  <si>
+    <t>plan</t>
   </si>
 </sst>
 </file>
@@ -439,14 +460,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607A6159-CF90-4C62-9A5A-46611A956E61}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.06640625" customWidth="1"/>
+    <col min="2" max="2" width="51.796875" customWidth="1"/>
     <col min="3" max="3" width="100.06640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.86328125" customWidth="1"/>
     <col min="5" max="5" width="45.796875" bestFit="1" customWidth="1"/>
@@ -487,10 +508,32 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B3" s="2"/>
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2"/>
@@ -536,8 +579,10 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1238C9D2-E63F-40DF-AA7F-B9CCE1D18005}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C9D2A9A6-B09E-4651-AEAC-213A81FACA2B}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{46902128-2952-4141-9421-930ED03188D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>